--- a/3º sem - Engenharia de Requisitos/23. Matriz de Rastreabilidade/23. Matrizes de Rastreabilidade (Características x SSS_ incompleto).xlsx
+++ b/3º sem - Engenharia de Requisitos/23. Matriz de Rastreabilidade/23. Matrizes de Rastreabilidade (Características x SSS_ incompleto).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mostrar\Especificacao\3º sem - Engenharia de Requisitos\23. Matriz de Rastreabilidade\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62292395-62B8-41B2-B57F-1B7DA82316B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="210">
   <si>
     <t>SSS/ Caracteristicas</t>
   </si>
@@ -641,12 +647,15 @@
   </si>
   <si>
     <t>O sistema DEVE gerar um relatório geral sobre o desempenho diário da empresa.</t>
+  </si>
+  <si>
+    <t>SSS-0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -818,7 +827,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -845,7 +854,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1150,19 +1159,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1352,7 +1361,7 @@
     </row>
     <row r="2" spans="1:54" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>74</v>
